--- a/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
+++ b/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Documents\GitHub\landbird-dp-workflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/reference/movebank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EC43E7-C9BD-4857-B449-B891D06137FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AAD008F1-3CF8-4364-8174-8182C9EBA4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4745,25 +4745,25 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.68359375" customWidth="1"/>
+    <col min="2" max="2" width="18.15625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="198.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="198.26171875" customWidth="1"/>
+    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>120</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>178</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>179</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>186</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>188</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>189</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>190</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>191</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>195</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>195</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>195</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>198</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>202</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>203</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>203</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>203</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>203</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>234</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>235</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>240</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>242</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>243</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>245</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>246</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>247</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>247</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>247</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>253</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>254</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>256</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>257</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>261</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>264</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>267</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>268</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>269</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>273</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>275</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>276</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>277</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>279</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>281</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>282</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>283</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>284</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>285</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>286</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>287</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>287</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>287</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>287</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>287</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>287</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>287</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>287</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>287</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>287</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>287</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>310</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>311</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>312</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>313</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>314</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>315</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>316</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>317</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>319</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>320</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>321</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>322</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>323</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>324</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>325</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>326</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>327</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>327</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>327</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>327</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>327</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>327</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>327</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>327</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>340</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>341</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>342</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>343</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>344</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>345</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>346</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>348</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>349</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>350</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>351</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>352</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>353</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>354</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>356</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>358</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>358</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>358</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>358</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>365</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>366</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>366</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>366</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>369</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>370</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>371</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>372</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>373</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>374</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>374</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>374</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>374</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>374</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>374</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>374</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>374</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>374</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>374</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>392</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>393</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>394</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>395</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>396</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>396</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>396</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>401</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>402</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>404</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>405</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>406</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>407</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>408</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>409</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>409</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>409</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>409</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>409</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>409</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>409</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>409</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>422</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>423</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>423</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>423</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>423</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>423</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>423</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>429</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>429</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>429</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>429</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>429</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>429</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>430</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>431</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>432</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>433</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>433</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>433</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>437</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>437</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>437</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>442</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>442</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>442</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>442</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>447</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>447</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>447</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>447</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>448</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>448</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>448</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>448</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>448</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>448</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>448</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>456</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>456</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>456</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>456</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>456</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>456</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>456</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>456</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>457</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>458</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>459</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>459</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>459</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>459</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>463</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>463</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>463</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>463</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>469</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>470</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>472</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>474</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>475</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>476</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>477</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>478</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>479</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>479</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>479</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>479</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>480</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>480</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>480</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>480</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>482</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>483</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>484</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>485</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>486</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>487</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>488</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>489</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>490</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>491</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>492</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>493</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>494</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>495</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>496</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>496</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>500</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>501</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>502</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>503</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>504</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>505</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>506</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>507</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>508</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>509</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>511</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>512</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>513</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>514</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>515</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>516</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>517</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>518</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>519</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>520</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>521</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>522</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>523</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>525</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>526</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>527</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>528</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>529</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>530</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>531</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>532</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>533</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>533</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>533</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>533</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>533</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>542</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>543</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>544</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>545</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>546</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>547</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>548</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>549</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>550</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>551</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>552</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>553</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>554</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>555</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>556</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>557</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>558</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>559</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>560</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>561</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>562</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>563</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>564</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>565</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>566</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>566</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>566</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>566</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>572</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>572</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>572</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>572</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>579</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>580</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>580</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>580</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>580</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>581</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>582</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>583</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>584</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>585</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>586</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>589</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>590</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>591</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>592</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>593</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>594</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>595</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>595</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>595</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>595</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>595</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>595</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>595</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>607</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>608</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>609</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>610</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>610</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>610</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>610</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>610</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>610</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>610</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>610</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>610</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>610</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>610</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>610</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>610</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>610</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>610</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>610</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>610</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>610</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>610</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>610</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>610</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>631</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>632</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>633</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>634</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>635</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>636</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>637</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>638</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>639</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>640</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>641</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>642</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>644</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>645</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>646</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>647</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>648</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>649</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>650</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>651</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>652</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>653</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>654</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>655</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>656</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>657</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>658</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>659</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>661</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>662</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>663</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>664</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>665</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>666</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>667</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>668</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>669</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>670</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>670</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>670</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>673</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>674</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>675</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>676</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>677</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>678</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>679</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>680</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>681</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>682</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>683</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>683</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>683</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>688</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>688</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>688</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>688</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>688</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>697</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>697</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>697</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>697</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>697</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>697</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>697</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>697</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>697</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>714</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>715</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>716</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>717</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>718</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>719</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>720</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>721</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>722</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>723</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>724</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>724</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>724</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>728</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>729</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>729</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>729</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>729</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>729</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>729</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>729</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>729</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>729</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>729</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>729</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>729</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>729</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>729</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>729</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>729</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>729</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>729</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>729</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>729</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>729</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>729</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>771</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>771</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>771</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>771</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>771</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>771</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>771</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>771</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>771</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>771</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>771</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>771</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>771</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>771</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>771</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>771</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>771</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>771</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>771</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>802</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>803</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>804</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>805</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>806</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>806</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>806</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>806</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>810</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>810</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>810</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>810</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>810</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>818</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>819</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>820</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>821</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>821</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>821</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>821</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>821</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>821</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>827</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>827</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>827</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>827</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>827</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>827</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>828</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>829</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>830</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>831</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>833</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>834</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>835</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>836</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>837</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>838</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>839</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>841</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>842</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>842</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>842</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>842</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>849</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>850</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>851</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>852</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>853</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>855</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>855</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>855</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>861</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>862</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>863</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>864</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>865</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>866</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>867</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>868</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>869</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>870</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>871</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>872</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>873</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>874</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>875</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>876</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>877</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>877</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>877</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>877</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>877</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>877</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>877</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>877</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>877</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>877</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>877</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>897</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>898</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>899</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>900</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>901</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>902</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>904</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>904</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>904</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>908</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>910</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>911</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>912</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>913</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>914</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>915</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>916</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>917</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>918</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>51</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>919</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>920</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>921</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>922</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>923</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>923</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>923</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>923</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>923</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>923</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>923</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>931</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>931</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>931</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>931</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>931</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>936</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>937</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>938</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>939</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>940</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>941</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>942</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>943</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>944</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>945</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>945</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>945</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>945</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>947</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>948</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>949</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>950</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>951</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>952</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>954</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>955</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>957</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>957</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>957</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>957</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>957</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>957</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>957</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>957</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>965</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>966</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>967</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>968</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>969</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>970</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>970</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>970</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>971</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>971</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>971</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>971</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>971</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>972</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>972</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>972</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>972</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>972</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>972</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>972</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>972</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>972</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>972</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>972</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>984</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>985</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>986</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>987</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>988</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>989</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>990</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>991</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>992</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>993</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>994</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>995</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>996</v>
       </c>

--- a/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
+++ b/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/reference/movebank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Documents\GitHub\landbird-dp-workflow\reference\movebank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{AAD008F1-3CF8-4364-8174-8182C9EBA4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A3CAAA-76EE-4C9F-9CA3-1815BAC675AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4742,7 +4742,7 @@
   <dimension ref="A1:N797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A774" sqref="A774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
+++ b/reference/movebank/Migratory_Tracking_data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\OneDrive - DOI\Documents\GitHub\landbird-dp-workflow\reference\movebank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/reference/movebank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A3CAAA-76EE-4C9F-9CA3-1815BAC675AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E4A3CAAA-76EE-4C9F-9CA3-1815BAC675AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3EB98A-1451-40AA-9605-19255E7478CA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -4742,28 +4742,28 @@
   <dimension ref="A1:N797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A774" sqref="A774"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.68359375" customWidth="1"/>
-    <col min="2" max="2" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="198.26171875" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="198.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>120</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>178</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>179</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>181</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>186</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>187</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>188</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>189</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>190</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>191</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>195</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>195</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>195</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>198</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>202</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>203</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>203</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>203</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>203</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>234</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>235</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>240</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>242</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>243</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>245</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>246</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>247</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>247</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>247</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>253</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>254</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>256</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>257</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>261</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>264</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>267</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>268</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>269</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>270</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>273</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>275</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>276</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>277</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>279</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>281</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>282</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>283</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>284</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>285</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>286</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>287</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>287</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>287</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>287</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>287</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>287</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>287</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>287</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>287</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>287</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>287</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>287</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>310</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>311</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>312</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>313</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>314</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>315</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>316</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>317</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>319</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>320</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>321</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>322</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>323</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>324</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>325</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>326</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>326</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>327</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>327</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>327</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>327</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>327</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>327</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>327</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>327</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>340</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>341</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>342</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>343</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>344</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>345</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>346</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>348</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>349</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>350</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>351</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>352</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>353</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>354</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>356</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>358</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>358</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>358</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>358</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>358</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>365</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>366</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>366</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>366</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>369</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>370</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>371</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>372</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>373</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>374</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>374</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>374</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>374</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>374</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>374</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>374</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>374</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>374</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>374</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>392</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>393</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>394</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>395</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>396</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>396</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>396</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>401</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>402</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>404</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>405</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>406</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>407</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>408</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>409</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>409</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>409</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>409</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>409</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>409</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>409</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>409</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>422</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>423</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>423</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>423</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>423</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>423</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>423</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>429</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>429</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>429</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>429</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>429</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>429</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>430</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>431</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>432</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>433</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>433</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>433</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>437</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>437</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>437</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>442</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>442</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>442</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>442</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>447</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>447</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>447</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>447</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>448</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>448</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>448</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>448</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>448</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>448</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>448</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>456</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>456</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>456</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>456</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>456</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>456</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>456</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>456</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>457</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>458</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>459</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>459</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>459</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>459</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>463</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>463</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>463</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>463</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>469</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>470</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>472</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>474</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>475</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>476</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>477</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>478</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>479</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>479</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>479</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>479</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>480</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>480</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>480</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>480</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>482</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>483</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>484</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>485</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>486</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>487</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>488</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>489</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>490</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>491</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>492</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>493</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>494</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>495</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>496</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>496</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>500</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>501</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>502</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>503</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>504</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>505</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>506</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>507</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>508</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>509</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>511</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>512</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>513</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>514</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>515</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>516</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>517</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>518</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>519</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>520</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>521</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>522</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>523</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>525</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>526</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>527</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>528</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>529</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>530</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>531</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>532</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>533</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>533</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>533</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>533</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>533</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>542</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>543</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>544</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>545</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>546</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>547</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>548</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>549</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>550</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>551</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>552</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>553</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>554</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>555</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>556</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>557</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>558</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>559</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>560</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>561</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>562</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>563</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>564</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>565</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>566</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>566</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>566</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>566</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>572</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>572</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>572</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>572</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>579</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>580</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>580</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>580</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>580</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>581</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>582</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>583</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>584</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>585</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>586</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>589</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>590</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>591</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>592</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>593</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>594</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>595</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>595</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>595</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>595</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>595</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>595</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>595</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>607</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>608</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>609</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>610</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>610</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>610</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>610</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>610</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>610</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>610</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>610</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>610</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>610</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>610</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>610</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>610</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>610</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>610</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>610</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>610</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>610</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>610</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>610</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>610</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>631</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>632</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>633</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>634</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>635</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>636</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>15</v>
       </c>
       <c r="D500" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E500" t="s">
         <v>31</v>
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>637</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>15</v>
       </c>
       <c r="D501" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E501" t="s">
         <v>31</v>
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>638</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>639</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>640</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>641</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>642</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>644</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>645</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>646</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>647</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>648</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>649</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>650</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>651</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>652</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>653</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>654</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>655</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>656</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>657</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>658</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>659</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>661</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>662</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>663</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>664</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>665</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>666</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>667</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>668</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>669</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>670</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>670</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>670</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>673</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>674</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>675</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>676</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>677</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>678</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>679</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>680</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>681</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>682</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>683</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>683</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>683</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>688</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>688</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>688</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>688</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>688</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>697</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>697</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>697</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>697</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>697</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>697</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>697</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>697</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>697</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>714</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>715</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>716</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>717</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>718</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>719</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>720</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>721</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>722</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>723</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>724</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>724</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>724</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>728</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>729</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>729</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>729</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>729</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>729</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>729</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>729</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>729</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>729</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>729</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>729</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>729</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>729</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>729</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>729</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>729</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>729</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>729</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>729</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>729</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>729</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>729</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>771</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>771</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>771</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>771</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>771</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>771</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>771</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>771</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>771</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>771</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>771</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>771</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>771</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>771</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>771</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>771</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>771</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>771</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>771</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>802</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>803</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>804</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>805</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>806</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>806</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>806</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>806</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>810</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>810</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>810</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>810</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>810</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>818</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>819</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>820</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>821</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>821</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>821</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>821</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>821</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>821</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>827</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>827</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>827</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>827</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>827</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>827</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>828</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>829</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>830</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>831</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>833</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>834</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>835</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>836</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>837</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>838</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>839</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>841</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>842</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>842</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>842</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>842</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>849</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>850</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>851</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>852</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>853</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>855</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>855</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>855</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>861</v>
       </c>
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>862</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>863</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>864</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>865</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>866</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>867</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>868</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>869</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>870</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>871</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>872</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>873</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>874</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>875</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>876</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>877</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>877</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>877</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>877</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>877</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>877</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>877</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>877</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>877</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>877</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>877</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>897</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>898</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>899</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>900</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>901</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>902</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>904</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>904</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>904</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>908</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>910</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>911</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>912</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>913</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>914</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>915</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>916</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>917</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>918</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>51</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>919</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>920</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>921</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>922</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>923</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>923</v>
       </c>
@@ -18361,7 +18361,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>923</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>923</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>923</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>923</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>923</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>931</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>931</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>931</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>931</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>931</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>936</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>937</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>938</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>939</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>940</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>941</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>942</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>943</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>944</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>945</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>945</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>945</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>945</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>947</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>948</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>949</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>950</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>951</v>
       </c>
@@ -18894,7 +18894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>952</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>954</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>955</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>957</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>957</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>957</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>957</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>957</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>957</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>957</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>957</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>965</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>966</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>967</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>968</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>969</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>970</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>970</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>970</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>971</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>971</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>971</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>971</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>971</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>972</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>972</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>972</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>972</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>972</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>972</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>972</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>972</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>972</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>972</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>972</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>984</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>985</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>986</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>987</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>988</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>989</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>990</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>991</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>992</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>993</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>994</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>995</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>996</v>
       </c>
